--- a/resources/risk_profiler.xlsx
+++ b/resources/risk_profiler.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,23 +787,23 @@
         <v>5</v>
       </c>
       <c r="D13" s="4">
-        <f>$C13*D$12*D4</f>
+        <f t="shared" ref="D13:H17" si="0">$C13*D$12*D4</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f>$C13*E$12*E4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f>$C13*F$12*F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f>$C13*G$12*G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>$C13*H$12*H4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -813,23 +813,23 @@
         <v>5</v>
       </c>
       <c r="L13" s="4">
-        <f>$C13*L$12*L4</f>
+        <f t="shared" ref="L13:P17" si="1">$C13*L$12*L4</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
-        <f>$C13*M$12*M4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <f>$C13*N$12*N4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <f>$C13*O$12*O4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P13" s="4">
-        <f>$C13*P$12*P4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -839,23 +839,23 @@
         <v>4</v>
       </c>
       <c r="D14" s="4">
-        <f>$C14*D$12*D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <f>$C14*E$12*E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <f>$C14*F$12*F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <f>$C14*G$12*G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>$C14*H$12*H5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="2"/>
@@ -863,23 +863,23 @@
         <v>4</v>
       </c>
       <c r="L14" s="4">
-        <f>$C14*L$12*L5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <f>$C14*M$12*M5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <f>$C14*N$12*N5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="4">
-        <f>$C14*O$12*O5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P14" s="4">
-        <f>$C14*P$12*P5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -891,23 +891,23 @@
         <v>3</v>
       </c>
       <c r="D15" s="4">
-        <f>$C15*D$12*D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <f>$C15*E$12*E6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <f>$C15*F$12*F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f>$C15*G$12*G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>$C15*H$12*H6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -917,23 +917,23 @@
         <v>3</v>
       </c>
       <c r="L15" s="4">
-        <f>$C15*L$12*L6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="4">
-        <f>$C15*M$12*M6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f>$C15*N$12*N6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <f>$C15*O$12*O6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <f>$C15*P$12*P6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -943,23 +943,23 @@
         <v>2</v>
       </c>
       <c r="D16" s="4">
-        <f>$C16*D$12*D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <f>$C16*E$12*E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <f>$C16*F$12*F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <f>$C16*G$12*G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>$C16*H$12*H7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="2"/>
@@ -967,23 +967,23 @@
         <v>2</v>
       </c>
       <c r="L16" s="4">
-        <f>$C16*L$12*L7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <f>$C16*M$12*M7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f>$C16*N$12*N7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O16" s="4">
-        <f>$C16*O$12*O7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="4">
-        <f>$C16*P$12*P7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -995,23 +995,23 @@
         <v>1</v>
       </c>
       <c r="D17" s="4">
-        <f>$C17*D$12*D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f>$C17*E$12*E8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f>$C17*F$12*F8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <f>$C17*G$12*G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>$C17*H$12*H8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1021,23 +1021,23 @@
         <v>1</v>
       </c>
       <c r="L17" s="4">
-        <f>$C17*L$12*L8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <f>$C17*M$12*M8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f>$C17*N$12*N8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f>$C17*O$12*O8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <f>$C17*P$12*P8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1097,6 +1097,30 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D13:H17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:P17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/risk_profiler.xlsx
+++ b/resources/risk_profiler.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>TOTAL</t>
   </si>
@@ -165,14 +165,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -491,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,216 +510,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
         <v>0</v>
       </c>
     </row>
@@ -728,10 +800,6 @@
       <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I9">
-        <f>SUM(D4:H8)</f>
-        <v>0</v>
-      </c>
       <c r="L9" s="2" t="s">
         <v>4</v>
       </c>
@@ -742,143 +810,158 @@
       <c r="P9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q9">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f>SUM(D4:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <f>SUM(L4:P8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
         <v>3</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="O12" s="2">
+        <v>4</v>
+      </c>
+      <c r="P12" s="2">
         <v>5</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <f t="shared" ref="D13:H17" si="0">$C13*D$12*D4</f>
         <v>0</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>5</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="8">
         <f t="shared" ref="L13:P17" si="1">$C13*L$12*L4</f>
         <v>0</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="M13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="K14" s="2">
+        <v>4</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -887,102 +970,102 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>3</v>
       </c>
-      <c r="L15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>2</v>
       </c>
-      <c r="L16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="L16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -991,52 +1074,52 @@
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>1</v>
       </c>
-      <c r="L17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
+      <c r="L17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1064,39 +1147,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f>SUM(D13:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>SUM(L13:P17)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <f>SUM(D13:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7">
-        <f>SUM(L13:P17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H21" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="6" t="str">
-        <f>IF(I20&lt;&gt;0,I20/I9,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="5" t="s">
+      <c r="I20" s="6" t="str">
+        <f>IF(I19&lt;&gt;0,I19/I10,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q21" s="6" t="str">
-        <f>IF(Q20&lt;&gt;0,Q20/Q9,"0")</f>
+      <c r="Q20" s="6" t="str">
+        <f>IF(Q19&lt;&gt;0,Q19/Q10,"0")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="xpO8rOEmrdeU04Lxj4iCbhpmS5639VKdkeL1ZYJBJWxPV3y0WxeRxeYZJubYttAS5hZmMhyL3BCKKZhySkJUnA==" saltValue="76Xg10+37oplj/p7feGBGg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D13:H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/resources/risk_profiler.xlsx
+++ b/resources/risk_profiler.xlsx
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -525,7 +525,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -541,42 +541,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2">
-        <v>3</v>
-      </c>
-      <c r="O3" s="2">
-        <v>4</v>
-      </c>
-      <c r="P3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2">
         <v>4</v>
@@ -660,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -704,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>2</v>
@@ -744,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -788,412 +753,441 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <f>SUM(D4:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>SUM(L4:P8)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="O9" s="2">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <f>SUM(D4:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <f>SUM(L4:P8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8">
+        <f>$C14*D$19*D4</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <f>$C14*E$19*E4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <f>$C14*F$19*F4</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <f>$C14*G$19*G4</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <f>$C14*H$19*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="8">
+        <f>$C14*L$19*L4</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <f>$C14*M$19*M4</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <f>$C14*N$19*N4</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <f>$C14*O$19*O4</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <f>$C14*P$19*P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8">
+        <f>$C15*D$19*D5</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <f>$C15*E$19*E5</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <f>$C15*F$19*F5</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <f>$C15*G$19*G5</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <f>$C15*H$19*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
+        <v>4</v>
+      </c>
+      <c r="L15" s="8">
+        <f>$C15*L$19*L5</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <f>$C15*M$19*M5</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <f>$C15*N$19*N5</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <f>$C15*O$19*O5</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <f>$C15*P$19*P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
+        <f>$C16*D$19*D6</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <f>$C16*E$19*E6</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <f>$C16*F$19*F6</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f>$C16*G$19*G6</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f>$C16*H$19*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="L16" s="8">
+        <f>$C16*L$19*L6</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <f>$C16*M$19*M6</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <f>$C16*N$19*N6</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <f>$C16*O$19*O6</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <f>$C16*P$19*P6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <f>$C17*D$19*D7</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <f>$C17*E$19*E7</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <f>$C17*F$19*F7</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <f>$C17*G$19*G7</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <f>$C17*H$19*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+      <c r="L17" s="8">
+        <f>$C17*L$19*L7</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <f>$C17*M$19*M7</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <f>$C17*N$19*N7</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <f>$C17*O$19*O7</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <f>$C17*P$19*P7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="D18" s="8">
+        <f>$C18*D$19*D8</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <f>$C18*E$19*E8</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <f>$C18*F$19*F8</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <f>$C18*G$19*G8</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <f>$C18*H$19*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8">
+        <f>$C18*L$19*L8</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <f>$C18*M$19*M8</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <f>$C18*N$19*N8</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <f>$C18*O$19*O8</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <f>$C18*P$19*P8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUM(D14:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="2">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2">
         <v>5</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
+      <c r="I19" s="2"/>
+      <c r="J19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <f>SUM(L14:P18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M19" s="2">
         <v>2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N19" s="2">
         <v>3</v>
       </c>
-      <c r="O12" s="2">
-        <v>4</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="O19" s="2">
+        <v>4</v>
+      </c>
+      <c r="P19" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f>IF(C19&lt;&gt;0,C19/C9,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" ref="D13:H17" si="0">$C13*D$12*D4</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6" t="str">
+        <f>IF(K19&lt;&gt;0,K19/K9,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="8">
-        <f t="shared" ref="L13:P17" si="1">$C13*L$12*L4</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2">
-        <v>4</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="2">
-        <v>3</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2">
-        <v>2</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <f>SUM(D13:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <f>SUM(L13:P17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="str">
-        <f>IF(I19&lt;&gt;0,I19/I10,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="6" t="str">
-        <f>IF(Q19&lt;&gt;0,Q19/Q10,"0")</f>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xpO8rOEmrdeU04Lxj4iCbhpmS5639VKdkeL1ZYJBJWxPV3y0WxeRxeYZJubYttAS5hZmMhyL3BCKKZhySkJUnA==" saltValue="76Xg10+37oplj/p7feGBGg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="D13:H17">
+  <sheetProtection algorithmName="SHA-512" hashValue="Sa1F2xPzqHNhYTYja9lGisD6Kiq0XOng/ow0ht2Us3ML9FYoUUxAS71ta5cQj8tcsC2OxCfvnqU4nOZixLRmmA==" saltValue="F7bKtbTG9+AeOPcvue9DMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="D14:H18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1205,7 +1199,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13:P17">
+  <conditionalFormatting sqref="L14:P18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/resources/risk_profiler.xlsx
+++ b/resources/risk_profiler.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>TOTAL</t>
   </si>
@@ -51,13 +51,34 @@
   </si>
   <si>
     <t>Enter number of risk factors according to Liklihood and Impact in the green areas. See the totals and averages appear below.</t>
+  </si>
+  <si>
+    <t>Risk category</t>
+  </si>
+  <si>
+    <t>Risk Score</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>1 to 8</t>
+  </si>
+  <si>
+    <t>9 to 15</t>
+  </si>
+  <si>
+    <t>17 to 25</t>
+  </si>
+  <si>
+    <t>Legend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +131,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +175,22 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -150,14 +201,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,12 +234,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
+    <cellStyle name="Accent2" xfId="6" builtinId="33"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,15 +568,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -831,23 +902,23 @@
         <v>5</v>
       </c>
       <c r="D14" s="8">
-        <f>$C14*D$19*D4</f>
+        <f t="shared" ref="D14:H18" si="0">$C14*D$19*D4</f>
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <f>$C14*E$19*E4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <f>$C14*F$19*F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <f>$C14*G$19*G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <f>$C14*H$19*H4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -857,23 +928,23 @@
         <v>5</v>
       </c>
       <c r="L14" s="8">
-        <f>$C14*L$19*L4</f>
+        <f t="shared" ref="L14:P18" si="1">$C14*L$19*L4</f>
         <v>0</v>
       </c>
       <c r="M14" s="8">
-        <f>$C14*M$19*M4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="8">
-        <f>$C14*N$19*N4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="8">
-        <f>$C14*O$19*O4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P14" s="8">
-        <f>$C14*P$19*P4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -883,23 +954,23 @@
         <v>4</v>
       </c>
       <c r="D15" s="8">
-        <f>$C15*D$19*D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <f>$C15*E$19*E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <f>$C15*F$19*F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <f>$C15*G$19*G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="8">
-        <f>$C15*H$19*H5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="2"/>
@@ -907,23 +978,23 @@
         <v>4</v>
       </c>
       <c r="L15" s="8">
-        <f>$C15*L$19*L5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="8">
-        <f>$C15*M$19*M5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="8">
-        <f>$C15*N$19*N5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="8">
-        <f>$C15*O$19*O5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="8">
-        <f>$C15*P$19*P5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -935,23 +1006,23 @@
         <v>3</v>
       </c>
       <c r="D16" s="8">
-        <f>$C16*D$19*D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <f>$C16*E$19*E6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f>$C16*F$19*F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <f>$C16*G$19*G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <f>$C16*H$19*H6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -961,23 +1032,23 @@
         <v>3</v>
       </c>
       <c r="L16" s="8">
-        <f>$C16*L$19*L6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M16" s="8">
-        <f>$C16*M$19*M6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="8">
-        <f>$C16*N$19*N6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O16" s="8">
-        <f>$C16*O$19*O6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="8">
-        <f>$C16*P$19*P6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -987,23 +1058,23 @@
         <v>2</v>
       </c>
       <c r="D17" s="8">
-        <f>$C17*D$19*D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <f>$C17*E$19*E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <f>$C17*F$19*F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <f>$C17*G$19*G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="8">
-        <f>$C17*H$19*H7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="2"/>
@@ -1011,23 +1082,23 @@
         <v>2</v>
       </c>
       <c r="L17" s="8">
-        <f>$C17*L$19*L7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M17" s="8">
-        <f>$C17*M$19*M7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="8">
-        <f>$C17*N$19*N7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O17" s="8">
-        <f>$C17*O$19*O7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P17" s="8">
-        <f>$C17*P$19*P7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1039,23 +1110,23 @@
         <v>1</v>
       </c>
       <c r="D18" s="8">
-        <f>$C18*D$19*D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <f>$C18*E$19*E8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <f>$C18*F$19*F8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="8">
-        <f>$C18*G$19*G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <f>$C18*H$19*H8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -1065,23 +1136,23 @@
         <v>1</v>
       </c>
       <c r="L18" s="8">
-        <f>$C18*L$19*L8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="8">
-        <f>$C18*M$19*M8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="8">
-        <f>$C18*N$19*N8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O18" s="8">
-        <f>$C18*O$19*O8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="8">
-        <f>$C18*P$19*P8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1178,6 +1249,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1185,8 +1260,40 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Sa1F2xPzqHNhYTYja9lGisD6Kiq0XOng/ow0ht2Us3ML9FYoUUxAS71ta5cQj8tcsC2OxCfvnqU4nOZixLRmmA==" saltValue="F7bKtbTG9+AeOPcvue9DMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YLZDtaQplzi7rxpbj5zUc9peZtZR5Dz5LxbP4TPyaBCUxzdXoycmE2efk/5p6s8XV+TnUbRqy3y0oBNAL3Xi5Q==" saltValue="qdZenGDtRBsqIxtmh6tx1g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D14:H18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -1212,5 +1319,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>